--- a/data/landings/cdfw/public/fish_bulletins/raw/fb161/raw/Table16.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb161/raw/Table16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb161/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb161/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFE670C-ACAD-2E46-8ADA-8D6FC4514251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6300AE99-58C2-2A4C-87D6-33964D370C55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23580" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,12 +523,12 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A51" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75" s="2">
         <v>47112790</v>
